--- a/simulation_data/iterative_algorithm/i_error_level_12_percent_water_60.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_12_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.91761442613338</v>
+        <v>90.72552638208028</v>
       </c>
       <c r="D2" t="n">
-        <v>18.04592609429334</v>
+        <v>17.57999761458771</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.55108377139379</v>
+        <v>86.34807399186815</v>
       </c>
       <c r="D3" t="n">
-        <v>16.06841760552404</v>
+        <v>16.37537827979651</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>90.44241480928568</v>
+        <v>86.28016982471135</v>
       </c>
       <c r="D4" t="n">
-        <v>19.26749558258481</v>
+        <v>16.18215331529007</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.37055056492832</v>
+        <v>88.1204867750113</v>
       </c>
       <c r="D5" t="n">
-        <v>18.74774568853038</v>
+        <v>16.85698838266383</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.4119570179932</v>
+        <v>83.51804533078081</v>
       </c>
       <c r="D6" t="n">
-        <v>20.01173123530629</v>
+        <v>15.55460081905122</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.49702971335742</v>
+        <v>82.57423409008054</v>
       </c>
       <c r="D7" t="n">
-        <v>18.06758502074066</v>
+        <v>14.8492000693959</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>88.2153476565498</v>
+        <v>81.57882058167471</v>
       </c>
       <c r="D8" t="n">
-        <v>17.70875896332354</v>
+        <v>17.36047418771561</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.22036903302751</v>
+        <v>80.62708522841736</v>
       </c>
       <c r="D9" t="n">
-        <v>19.22328063463166</v>
+        <v>20.15861962680978</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.53102021953435</v>
+        <v>81.41860354769807</v>
       </c>
       <c r="D10" t="n">
-        <v>18.48827967808961</v>
+        <v>20.23102894567887</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.97419542978119</v>
+        <v>80.051879911116</v>
       </c>
       <c r="D11" t="n">
-        <v>18.10616482007168</v>
+        <v>17.42886881546782</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>83.00830412320238</v>
+        <v>79.67963319863908</v>
       </c>
       <c r="D12" t="n">
-        <v>16.92648619854239</v>
+        <v>17.83043065581784</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.45889959057419</v>
+        <v>78.55469202317364</v>
       </c>
       <c r="D13" t="n">
-        <v>17.46855717055949</v>
+        <v>17.91159051705694</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>76.74398107983001</v>
+        <v>75.7911745748541</v>
       </c>
       <c r="D14" t="n">
-        <v>17.10462533178668</v>
+        <v>17.80641356165997</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>79.32800154333445</v>
+        <v>76.90616126187388</v>
       </c>
       <c r="D15" t="n">
-        <v>18.20933081691533</v>
+        <v>17.3508595837922</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>73.30375020382949</v>
+        <v>76.56453891177289</v>
       </c>
       <c r="D16" t="n">
-        <v>17.25887685832626</v>
+        <v>15.21202816596963</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.12024497214944</v>
+        <v>74.16468016178713</v>
       </c>
       <c r="D17" t="n">
-        <v>17.12809468324741</v>
+        <v>15.94339421661666</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.18811399055606</v>
+        <v>73.99733174616044</v>
       </c>
       <c r="D18" t="n">
-        <v>16.78050243419641</v>
+        <v>15.08903437530674</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>76.7602862032153</v>
+        <v>70.48723741342553</v>
       </c>
       <c r="D19" t="n">
-        <v>17.66870442628547</v>
+        <v>16.03514372638439</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.22133285788257</v>
+        <v>72.48257193658397</v>
       </c>
       <c r="D20" t="n">
-        <v>17.38992471055242</v>
+        <v>16.00932742823578</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.7131340113567</v>
+        <v>71.76172642673031</v>
       </c>
       <c r="D21" t="n">
-        <v>16.4133631433252</v>
+        <v>16.77886715756419</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.29212816058036</v>
+        <v>69.14777936070845</v>
       </c>
       <c r="D22" t="n">
-        <v>15.4002706146615</v>
+        <v>16.67394687837517</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>66.20983875057703</v>
+        <v>67.93654687082534</v>
       </c>
       <c r="D23" t="n">
-        <v>18.97007280471864</v>
+        <v>17.32482588825888</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.35906091443587</v>
+        <v>69.46716487687999</v>
       </c>
       <c r="D24" t="n">
-        <v>16.98964168511329</v>
+        <v>16.50448371425824</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.59140524015748</v>
+        <v>65.3966765108368</v>
       </c>
       <c r="D25" t="n">
-        <v>17.54344087416909</v>
+        <v>16.52919962326449</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>64.70367746132752</v>
+        <v>63.05764821579965</v>
       </c>
       <c r="D26" t="n">
-        <v>16.53848537611679</v>
+        <v>16.78572442946479</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>66.8362673423041</v>
+        <v>65.90699295344433</v>
       </c>
       <c r="D27" t="n">
-        <v>17.08551738296259</v>
+        <v>17.75201750690147</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.75844688639494</v>
+        <v>62.86842259907456</v>
       </c>
       <c r="D28" t="n">
-        <v>17.43938739274506</v>
+        <v>15.54110380599538</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>67.4540781316968</v>
+        <v>63.73801818741209</v>
       </c>
       <c r="D29" t="n">
-        <v>17.74822514333133</v>
+        <v>17.73701929801104</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>60.58133700608625</v>
+        <v>60.12122033457502</v>
       </c>
       <c r="D30" t="n">
-        <v>18.21775015781277</v>
+        <v>14.69580960975446</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>62.05331368363349</v>
+        <v>59.66937524186203</v>
       </c>
       <c r="D31" t="n">
-        <v>17.59151501075483</v>
+        <v>18.18942281142391</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.64542961020548</v>
+        <v>57.8513016553547</v>
       </c>
       <c r="D32" t="n">
-        <v>16.6352364521556</v>
+        <v>18.39483310354526</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>57.90688760248715</v>
+        <v>54.83677207861755</v>
       </c>
       <c r="D33" t="n">
-        <v>17.10258227991177</v>
+        <v>17.05663108560459</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.86799684945962</v>
+        <v>56.61939202996258</v>
       </c>
       <c r="D34" t="n">
-        <v>16.71266465755474</v>
+        <v>16.57808754760318</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>54.656189228617</v>
+        <v>58.5819121942147</v>
       </c>
       <c r="D35" t="n">
-        <v>16.52075146805015</v>
+        <v>17.08283510650239</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>54.99846956816609</v>
+        <v>55.12743686742272</v>
       </c>
       <c r="D36" t="n">
-        <v>18.32475869744455</v>
+        <v>16.81888441228093</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>53.34828409846108</v>
+        <v>53.20557728188837</v>
       </c>
       <c r="D37" t="n">
-        <v>15.32298923480323</v>
+        <v>16.34782230606068</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>52.72635320554451</v>
+        <v>52.6685820437983</v>
       </c>
       <c r="D38" t="n">
-        <v>17.93717806960836</v>
+        <v>17.45716518531163</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>50.00720908776309</v>
+        <v>53.2684166440507</v>
       </c>
       <c r="D39" t="n">
-        <v>16.35873797763661</v>
+        <v>16.57445665981287</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>50.99512864494656</v>
+        <v>51.37859391182938</v>
       </c>
       <c r="D40" t="n">
-        <v>16.88628786441742</v>
+        <v>17.35192909593703</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>52.80652158124784</v>
+        <v>51.91944760983748</v>
       </c>
       <c r="D41" t="n">
-        <v>16.97368010912725</v>
+        <v>14.91625953134359</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>51.37379130979839</v>
+        <v>49.37714385429997</v>
       </c>
       <c r="D42" t="n">
-        <v>18.56258720062525</v>
+        <v>18.66622592528851</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.89287549865232</v>
+        <v>47.10254155236432</v>
       </c>
       <c r="D43" t="n">
-        <v>18.08492498771075</v>
+        <v>18.89302738470916</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>45.41855025481942</v>
+        <v>45.48241323471952</v>
       </c>
       <c r="D44" t="n">
-        <v>18.58654275385644</v>
+        <v>18.81520994235824</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.60881449843259</v>
+        <v>47.93877417107027</v>
       </c>
       <c r="D45" t="n">
-        <v>18.50279165285173</v>
+        <v>18.86056091587837</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>41.91703766809736</v>
+        <v>46.14033076264569</v>
       </c>
       <c r="D46" t="n">
-        <v>17.97448028913671</v>
+        <v>17.80591504661418</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.34545180732832</v>
+        <v>45.09072661965368</v>
       </c>
       <c r="D47" t="n">
-        <v>17.45091721704284</v>
+        <v>18.99740797533907</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>47.56492479535203</v>
+        <v>43.39550546475409</v>
       </c>
       <c r="D48" t="n">
-        <v>17.15879887004584</v>
+        <v>17.19703095899889</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.00245427096382</v>
+        <v>40.76822845339366</v>
       </c>
       <c r="D49" t="n">
-        <v>16.70806878078289</v>
+        <v>17.33231680195402</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>44.22958146508317</v>
+        <v>41.12551740739647</v>
       </c>
       <c r="D50" t="n">
-        <v>20.72026695659683</v>
+        <v>17.68251239860541</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>38.38115859195103</v>
+        <v>42.29465862940499</v>
       </c>
       <c r="D51" t="n">
-        <v>19.25244646785913</v>
+        <v>16.50979019220886</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.10149047355289</v>
+        <v>38.39385327752131</v>
       </c>
       <c r="D52" t="n">
-        <v>19.19116416962354</v>
+        <v>16.71708953690787</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>40.80608707711421</v>
+        <v>36.90239683329482</v>
       </c>
       <c r="D53" t="n">
-        <v>19.20203902907591</v>
+        <v>15.95431678581994</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.03562669718652</v>
+        <v>35.18473114116118</v>
       </c>
       <c r="D54" t="n">
-        <v>20.09101433324356</v>
+        <v>17.45882313559441</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>38.15986318979648</v>
+        <v>39.30188099448682</v>
       </c>
       <c r="D55" t="n">
-        <v>15.93523300168154</v>
+        <v>18.30915213175951</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>38.23971631533011</v>
+        <v>33.22802090397933</v>
       </c>
       <c r="D56" t="n">
-        <v>19.12239254421536</v>
+        <v>16.47062911520196</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>32.88929043034435</v>
+        <v>35.16264243237829</v>
       </c>
       <c r="D57" t="n">
-        <v>19.07269750844101</v>
+        <v>16.41912682187986</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.60807379407225</v>
+        <v>32.33765527078071</v>
       </c>
       <c r="D58" t="n">
-        <v>18.32367666264589</v>
+        <v>17.95936633830865</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.61801520072477</v>
+        <v>35.26676251525348</v>
       </c>
       <c r="D59" t="n">
-        <v>20.32013479176559</v>
+        <v>15.77960935633317</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>33.02048793964448</v>
+        <v>31.37888076978355</v>
       </c>
       <c r="D60" t="n">
-        <v>18.17445686648023</v>
+        <v>17.4939681834106</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>29.27378336234321</v>
+        <v>31.84277753065175</v>
       </c>
       <c r="D61" t="n">
-        <v>16.71357781007535</v>
+        <v>17.49615608499197</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.00845898292951</v>
+        <v>29.94977275095768</v>
       </c>
       <c r="D62" t="n">
-        <v>15.80465575522385</v>
+        <v>19.88415317475754</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>26.03664615115256</v>
+        <v>27.06974098698695</v>
       </c>
       <c r="D63" t="n">
-        <v>18.0367151544938</v>
+        <v>17.94505406064297</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>31.7939539040382</v>
+        <v>29.05845378225697</v>
       </c>
       <c r="D64" t="n">
-        <v>16.29942304440476</v>
+        <v>18.7708065880335</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>25.39135899933687</v>
+        <v>26.20698426030518</v>
       </c>
       <c r="D65" t="n">
-        <v>17.09220697675847</v>
+        <v>18.5120594494594</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>27.70823574968365</v>
+        <v>28.97751459791577</v>
       </c>
       <c r="D66" t="n">
-        <v>17.12088755575549</v>
+        <v>16.91585681565387</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.83590032333831</v>
+        <v>22.54281317351328</v>
       </c>
       <c r="D67" t="n">
-        <v>16.29230067040945</v>
+        <v>16.02948707482658</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>25.8363346209074</v>
+        <v>22.65185351807857</v>
       </c>
       <c r="D68" t="n">
-        <v>17.34974494401211</v>
+        <v>15.88963467376282</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>24.04328407868986</v>
+        <v>22.83963999447151</v>
       </c>
       <c r="D69" t="n">
-        <v>17.78283769234878</v>
+        <v>17.51869574745723</v>
       </c>
     </row>
   </sheetData>
